--- a/docs/Request Data.xlsx
+++ b/docs/Request Data.xlsx
@@ -395,7 +395,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -406,6 +406,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -431,11 +435,11 @@
   </sheetPr>
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.57"/>
@@ -507,7 +511,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -529,7 +533,7 @@
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -561,7 +565,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -583,7 +587,7 @@
       <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -615,14 +619,14 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -637,7 +641,7 @@
       <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -669,14 +673,14 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -691,7 +695,7 @@
       <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -723,7 +727,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -745,7 +749,7 @@
       <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="3" t="n">
         <v>2024</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -777,7 +781,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>56</v>
       </c>
@@ -799,7 +803,7 @@
       <c r="G7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="3" t="n">
         <v>2023</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -831,7 +835,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>66</v>
       </c>
@@ -853,7 +857,7 @@
       <c r="G8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -885,7 +889,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>76</v>
       </c>
@@ -907,7 +911,7 @@
       <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="3" t="n">
         <v>2022</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -939,7 +943,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>85</v>
       </c>
@@ -961,7 +965,7 @@
       <c r="G10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="3" t="n">
         <v>2020</v>
       </c>
       <c r="I10" s="2" t="s">
